--- a/Matlab Models/Bue/Resultater/Med orientation/Model resultater.xlsx
+++ b/Matlab Models/Bue/Resultater/Med orientation/Model resultater.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Bagged trees:</t>
   </si>
@@ -50,38 +50,69 @@
     <t>Alle i %:</t>
   </si>
   <si>
-    <t>Opsætning med 40 learners</t>
-  </si>
-  <si>
     <t>Max præcision: 97,2 %</t>
   </si>
   <si>
     <t>Min præcision: 96,9 %</t>
   </si>
   <si>
-    <t>Opsætning med 20 learners</t>
-  </si>
-  <si>
     <t>Min præcision: 96,7 %</t>
   </si>
   <si>
     <t>Gennemsnit</t>
   </si>
   <si>
-    <t>Opsætning med 60 learners</t>
-  </si>
-  <si>
     <t>Max præcision: 97,3 %</t>
+  </si>
+  <si>
+    <t>Antal learners</t>
+  </si>
+  <si>
+    <t>30 (stadard)</t>
+  </si>
+  <si>
+    <t>Max præcision i %</t>
+  </si>
+  <si>
+    <t>Min præcision  i %</t>
+  </si>
+  <si>
+    <t>Gennemsnitlig præcision i %</t>
+  </si>
+  <si>
+    <t>20 learners</t>
+  </si>
+  <si>
+    <t>40 learners</t>
+  </si>
+  <si>
+    <t>60 learners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -112,16 +143,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,307 +515,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R27"/>
+  <dimension ref="B3:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C9" s="7"/>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4">
+        <v>20</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>97.1</v>
+      </c>
+      <c r="N10">
+        <v>97.3</v>
+      </c>
+      <c r="O10">
+        <v>97.2</v>
+      </c>
+      <c r="P10">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>96.7</v>
+      </c>
+      <c r="N11">
+        <v>96.9</v>
+      </c>
+      <c r="O11">
+        <v>96.9</v>
+      </c>
+      <c r="P11">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>96.93</v>
+      </c>
+      <c r="N12">
+        <v>97.06</v>
+      </c>
+      <c r="O12">
+        <v>97.04</v>
+      </c>
+      <c r="P12">
+        <v>97.04</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="E16">
+        <v>96.9</v>
+      </c>
+      <c r="G16">
+        <v>97.2</v>
+      </c>
+      <c r="I16">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="7">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>97</v>
+      </c>
+      <c r="G17">
+        <v>97.1</v>
+      </c>
+      <c r="I17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="7">
+        <v>97.1</v>
+      </c>
+      <c r="E18">
+        <v>97.1</v>
+      </c>
+      <c r="G18">
+        <v>97</v>
+      </c>
+      <c r="I18">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="G19">
+        <v>97.1</v>
+      </c>
+      <c r="I19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7">
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <v>96.7</v>
+      </c>
+      <c r="G20">
+        <v>96.9</v>
+      </c>
+      <c r="I20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7">
+        <v>97</v>
+      </c>
+      <c r="E21">
+        <v>96.8</v>
+      </c>
+      <c r="G21">
+        <v>97.1</v>
+      </c>
+      <c r="I21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7">
+        <v>96.9</v>
+      </c>
+      <c r="E22">
+        <v>96.8</v>
+      </c>
+      <c r="G22">
+        <v>96.9</v>
+      </c>
+      <c r="I22">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7">
+        <v>97</v>
+      </c>
+      <c r="E23">
+        <v>97.1</v>
+      </c>
+      <c r="G23">
+        <v>97</v>
+      </c>
+      <c r="I23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="E24">
+        <v>96.8</v>
+      </c>
+      <c r="G24">
+        <v>97.1</v>
+      </c>
+      <c r="I24">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9">
+        <v>97.1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>97</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>96.9</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
+      <c r="C26" s="9">
+        <f>AVERAGE(C16:C25)</f>
+        <v>97.06</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(E16:E25)</f>
+        <v>96.929999999999993</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(G16:G25)</f>
+        <v>97.039999999999992</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(I16:I25)</f>
+        <v>97.039999999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="L14" t="s">
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="F30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="H30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>95.8</v>
-      </c>
-      <c r="D16">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>97.3</v>
       </c>
-      <c r="H16">
-        <v>96.9</v>
-      </c>
-      <c r="M16">
+      <c r="D31">
+        <v>96.9</v>
+      </c>
+      <c r="F31">
         <v>97.2</v>
       </c>
-      <c r="R16">
-        <v>97.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>97</v>
-      </c>
-      <c r="D17">
-        <v>97</v>
-      </c>
-      <c r="H17">
-        <v>97</v>
-      </c>
-      <c r="M17">
-        <v>97.1</v>
-      </c>
-      <c r="R17">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="H31">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>97</v>
+      </c>
+      <c r="F32">
+        <v>97.1</v>
+      </c>
+      <c r="H32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>97.1</v>
+      </c>
+      <c r="D33">
+        <v>97.1</v>
+      </c>
+      <c r="F33">
+        <v>97</v>
+      </c>
+      <c r="H33">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>97</v>
+      </c>
+      <c r="D34">
+        <v>97</v>
+      </c>
+      <c r="F34">
+        <v>97.1</v>
+      </c>
+      <c r="H34">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>96.7</v>
+      </c>
+      <c r="F35">
+        <v>96.9</v>
+      </c>
+      <c r="H35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>97</v>
+      </c>
+      <c r="D36">
         <v>96.8</v>
       </c>
-      <c r="D18">
-        <v>97.1</v>
-      </c>
-      <c r="H18">
-        <v>97.1</v>
-      </c>
-      <c r="M18">
-        <v>97</v>
-      </c>
-      <c r="R18">
+      <c r="F36">
+        <v>97.1</v>
+      </c>
+      <c r="H36">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>96.9</v>
+      </c>
+      <c r="D37">
+        <v>96.8</v>
+      </c>
+      <c r="F37">
+        <v>96.9</v>
+      </c>
+      <c r="H37">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>97.1</v>
+      </c>
+      <c r="F38">
+        <v>97</v>
+      </c>
+      <c r="H38">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>96.9</v>
-      </c>
-      <c r="D19">
-        <v>97</v>
-      </c>
-      <c r="H19">
-        <v>97</v>
-      </c>
-      <c r="M19">
-        <v>97.1</v>
-      </c>
-      <c r="R19">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>97</v>
-      </c>
-      <c r="D20">
-        <v>97</v>
-      </c>
-      <c r="H20">
-        <v>96.7</v>
-      </c>
-      <c r="M20">
-        <v>96.9</v>
-      </c>
-      <c r="R20">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>97</v>
-      </c>
-      <c r="D21">
-        <v>97</v>
-      </c>
-      <c r="H21">
+      <c r="D39">
         <v>96.8</v>
       </c>
-      <c r="M21">
-        <v>97.1</v>
-      </c>
-      <c r="R21">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>97.1</v>
-      </c>
-      <c r="D22">
-        <v>96.9</v>
-      </c>
-      <c r="H22">
-        <v>96.8</v>
-      </c>
-      <c r="M22">
-        <v>96.9</v>
-      </c>
-      <c r="R22">
-        <v>97.1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>96.9</v>
-      </c>
-      <c r="D23">
-        <v>97</v>
-      </c>
-      <c r="H23">
-        <v>97.1</v>
-      </c>
-      <c r="M23">
-        <v>97</v>
-      </c>
-      <c r="R23">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>97</v>
-      </c>
-      <c r="D24">
-        <v>97.2</v>
-      </c>
-      <c r="H24">
-        <v>96.8</v>
-      </c>
-      <c r="M24">
-        <v>97.1</v>
-      </c>
-      <c r="R24">
-        <v>97.1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1">
-        <v>97.1</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>97.1</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <f>AVERAGE(C16:C25)</f>
-        <v>96.85</v>
-      </c>
-      <c r="D26">
-        <f>AVERAGE(D16:D25)</f>
+      <c r="F39">
+        <v>97.1</v>
+      </c>
+      <c r="H39">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <v>97</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>96.9</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f>AVERAGE(B31:B40)</f>
         <v>97.06</v>
       </c>
-      <c r="H26">
-        <f>AVERAGE(H16:H25)</f>
+      <c r="D41">
+        <f>AVERAGE(D31:D40)</f>
         <v>96.929999999999993</v>
       </c>
-      <c r="M26">
-        <f>AVERAGE(M16:M25)</f>
+      <c r="F41">
+        <f>AVERAGE(F31:F40)</f>
         <v>97.039999999999992</v>
       </c>
-      <c r="R26">
-        <f>AVERAGE(R16:R25)</f>
+      <c r="H41">
+        <f>AVERAGE(H31:H40)</f>
         <v>97.039999999999992</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>